--- a/Cronograma-V.1.1.1.xlsx
+++ b/Cronograma-V.1.1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osvaldo Florencio\Documents\GitHub\Documentacion_Movil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Documentos\Proyectos\Documentacion_Movil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A3F8CF-5F04-4F05-BBDF-3B79E6D7CDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491DAE8-983D-4CE2-86CE-679E66B45161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0AB2AF6-3177-4D3A-81FD-E02B412E58B5}"/>
   </bookViews>
@@ -27,9 +27,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -167,23 +168,32 @@
     <t>Actividades Clave</t>
   </si>
   <si>
-    <t>1- Analisis y diseño del módulo de Autentificación 2- Creación de base de datos para usuarios.  3- Implementación de inicio/cierre de sesión.</t>
-  </si>
-  <si>
-    <t>1- Diseño de interfaz de gestión de libros. 2-Implementar funciones de alta, baja, modificación y consulta. 3- Pruebas unitarias del CRUD.</t>
-  </si>
-  <si>
-    <t>1- Implementación del flujo de préstamo. 2- Control de disponibilidad de libros. 3- Registro de historial de préstamos. 4- Validación de fechas de devolución.</t>
-  </si>
-  <si>
-    <t>1-Pruebas integrales y corrección de errores. 2. Elaboración del manual de usuario y técnico. 3- Presentación final del sistema.</t>
+    <t>1- Analisis y diseño del módulo de Autentificación
+2- Creación de base de datos para usuarios. 
+3- Implementación de inicio/cierre de sesión.</t>
+  </si>
+  <si>
+    <t>1- Diseño de interfaz de gestión de libros. 
+2-Implementar funciones de alta, baja, modificación y consulta.
+3- Pruebas unitarias del CRUD.</t>
+  </si>
+  <si>
+    <t>1- Implementación del flujo de préstamo.
+2- Control de disponibilidad de libros.
+3- Registro de historial de préstamos.
+4- Validación de fechas de devolución.</t>
+  </si>
+  <si>
+    <t>1-Pruebas integrales y corrección de errores.
+2. Elaboración del manual de usuario y técnico.
+3- Presentación final del sistema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +205,13 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -289,7 +306,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,29 +654,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5E6F5-1D1F-42D3-80F3-B430C5C3AD16}">
   <dimension ref="C1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="18" max="19" width="45.88671875" customWidth="1"/>
-    <col min="20" max="20" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="10.296875" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="45.8984375" customWidth="1"/>
+    <col min="20" max="20" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" ht="21" customHeight="1">
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
@@ -671,23 +700,23 @@
         <v>15</v>
       </c>
       <c r="N1" s="7"/>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="3:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" ht="57" customHeight="1">
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="1" t="s">
@@ -720,23 +749,23 @@
       <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" ht="58.8" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -753,23 +782,23 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="P3" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" ht="61.2" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -786,23 +815,23 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="P4" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" ht="46.8" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
@@ -819,23 +848,23 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="P5" t="s">
+      <c r="P5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20">
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
@@ -853,7 +882,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20">
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -871,7 +900,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20">
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
@@ -889,7 +918,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20">
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
@@ -917,5 +946,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>